--- a/Cac_Chuc_Nang.xlsx
+++ b/Cac_Chuc_Nang.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>đăng nhập</t>
-  </si>
-  <si>
-    <t>đăng ký gian hàng</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>đăng ký tài khoản user</t>
   </si>
@@ -51,14 +45,146 @@
     <t>Nhóm người dùng</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>phân quyền</t>
+  </si>
+  <si>
+    <t>đặt hàng</t>
+  </si>
+  <si>
+    <t>duyệt hóa đơn</t>
+  </si>
+  <si>
+    <t>trả tiền hoa hồng cho khách</t>
+  </si>
+  <si>
+    <t>trạng thái</t>
+  </si>
+  <si>
+    <t>sổ địa chỉ khách hàng</t>
+  </si>
+  <si>
+    <t>danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>phân cấp hoa hồng</t>
+  </si>
+  <si>
+    <t>quản lý loại danh mục</t>
+  </si>
+  <si>
+    <t>danh sách các khách hàng của trang quản trị</t>
+  </si>
+  <si>
+    <t>danh sách hoa hồng củatrang quản trị</t>
+  </si>
+  <si>
+    <t>đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>thông tin cá nhân của người dùng</t>
+  </si>
+  <si>
+    <t>Các trang để hoàn thiện trang web như , về chúng tôi, điều khoản sử dụng, chính sách bảo mật , …</t>
+  </si>
+  <si>
+    <t>đã hoàn thành</t>
+  </si>
+  <si>
+    <t>chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>lịch sử nhận trả hoa hồng của khách</t>
+  </si>
+  <si>
+    <t>lịch sử đơn hàng</t>
+  </si>
+  <si>
+    <t>Đăng Nhập</t>
+  </si>
+  <si>
+    <t>Đăng ký gian hàng</t>
+  </si>
+  <si>
+    <t>chức năng đăng nhập</t>
+  </si>
+  <si>
+    <t>chức năng đăng ký tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>chức năng tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>chức năng quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>thêm</t>
+  </si>
+  <si>
+    <t>sửa</t>
+  </si>
+  <si>
+    <t>xóa</t>
+  </si>
+  <si>
+    <t>tìm kiếm sp</t>
+  </si>
+  <si>
+    <t>chức năng quản lý phân cấp hoa hồng</t>
+  </si>
+  <si>
+    <t>bật/tắt</t>
+  </si>
+  <si>
+    <t>xem</t>
+  </si>
+  <si>
+    <t>cài đặt giá</t>
+  </si>
+  <si>
+    <t>chức năng đặt hàng</t>
+  </si>
+  <si>
+    <t>chức năng sổ địa chỉ</t>
+  </si>
+  <si>
+    <t>chức năng đăng ký  tài khoản gian hàng</t>
+  </si>
+  <si>
+    <t>chức năng xem thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>chức năng cập nhật thông tin cá  nhân</t>
+  </si>
+  <si>
+    <t>khóa tài khoản gian hàng</t>
+  </si>
+  <si>
+    <t>khóa tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>chức năng là trả tiền hoa hồng cho khách</t>
+  </si>
+  <si>
+    <t>chức năng quản lý danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>chức năng quản lý hóa đơn</t>
+  </si>
+  <si>
+    <t>xem hóa đơn</t>
+  </si>
+  <si>
+    <t>xác nhận thành công</t>
+  </si>
+  <si>
+    <t>chức năng đổi mật khẩu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +192,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,8 +220,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -89,15 +235,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,72 +590,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Cac_Chuc_Nang.xlsx
+++ b/Cac_Chuc_Nang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>đăng ký tài khoản user</t>
   </si>
@@ -174,10 +174,55 @@
     <t>xem hóa đơn</t>
   </si>
   <si>
-    <t>xác nhận thành công</t>
-  </si>
-  <si>
     <t>chức năng đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>các bảng trong cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>users_profile</t>
+  </si>
+  <si>
+    <t>users_gian_hang</t>
+  </si>
+  <si>
+    <t>san_pham_danh_muc</t>
+  </si>
+  <si>
+    <t>san_pham</t>
+  </si>
+  <si>
+    <t>san_pham_gia</t>
+  </si>
+  <si>
+    <t>phan_cap</t>
+  </si>
+  <si>
+    <t>hoa_don</t>
+  </si>
+  <si>
+    <t>hoa_don_chi_tiet</t>
+  </si>
+  <si>
+    <t>hoa_hong_khach_hang</t>
+  </si>
+  <si>
+    <t>hoa_hong_khach_hang_log</t>
+  </si>
+  <si>
+    <t>tinhthanh</t>
+  </si>
+  <si>
+    <t>quanhuyen</t>
+  </si>
+  <si>
+    <t>phuongxa</t>
+  </si>
+  <si>
+    <t>xác nhận tc</t>
   </si>
 </sst>
 </file>
@@ -590,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L25"/>
+  <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,10 +646,10 @@
     <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -631,6 +676,9 @@
       <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -643,6 +691,9 @@
       <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
@@ -655,6 +706,9 @@
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
       <c r="F5" t="s">
         <v>42</v>
       </c>
@@ -669,6 +723,9 @@
       <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
@@ -683,6 +740,9 @@
       <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
@@ -715,6 +775,9 @@
       <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
       <c r="F8" t="s">
         <v>36</v>
       </c>
@@ -738,6 +801,9 @@
       <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
       <c r="F9" t="s">
         <v>40</v>
       </c>
@@ -752,6 +818,9 @@
       <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
       <c r="F10" t="s">
         <v>41</v>
       </c>
@@ -766,6 +835,9 @@
       <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
       <c r="F11" t="s">
         <v>43</v>
       </c>
@@ -780,6 +852,9 @@
       <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
       <c r="F12" t="s">
         <v>44</v>
       </c>
@@ -794,6 +869,9 @@
       <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
       <c r="F13" t="s">
         <v>45</v>
       </c>
@@ -808,6 +886,9 @@
       <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
       <c r="F14" t="s">
         <v>46</v>
       </c>
@@ -822,6 +903,9 @@
       <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
       <c r="F15" t="s">
         <v>47</v>
       </c>
@@ -836,6 +920,9 @@
       <c r="D16" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
@@ -856,6 +943,9 @@
       <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
       <c r="F17" t="s">
         <v>49</v>
       </c>
@@ -866,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -879,8 +969,11 @@
       <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -904,6 +997,9 @@
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -915,6 +1011,12 @@
       <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -924,6 +1026,12 @@
       <c r="D22" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -934,6 +1042,12 @@
       </c>
       <c r="D23" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -942,6 +1056,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="12"/>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -952,6 +1072,84 @@
       </c>
       <c r="D25" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
